--- a/To_Do_List.xlsx
+++ b/To_Do_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Excel Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7431C726-25CE-4AF7-BA0C-3DB2EFC13748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0A324-F8D5-4224-8F98-727980D5AF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B9264B44-4C1B-4D88-AE17-518E9CC3D9B0}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <definedName name="Priority">Priority_Table[Priority]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -395,6 +394,11 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,16 +432,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="19">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -451,13 +483,34 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -471,25 +524,11 @@
     </dxf>
     <dxf>
       <font>
-        <strike/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF33E0D"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -504,12 +543,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF33E0D"/>
         </patternFill>
       </fill>
     </dxf>
@@ -522,162 +565,6 @@
           <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF33E0D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF33E0D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF33E0D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1026,34 +913,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{441BBA58-A25D-4BD6-B60A-8268B5A326C7}" name="Priority_Table" displayName="Priority_Table" ref="K6:K9" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{441BBA58-A25D-4BD6-B60A-8268B5A326C7}" name="Priority_Table" displayName="Priority_Table" ref="K6:K9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="K6:K9" xr:uid="{441BBA58-A25D-4BD6-B60A-8268B5A326C7}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{234A66FE-708D-40AD-ACD6-8FBC51812C37}" name="Priority" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{234A66FE-708D-40AD-ACD6-8FBC51812C37}" name="Priority" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A84109D-8D13-4CD0-BD19-3A7EFEF25FF8}" name="Category_Table" displayName="Category_Table" ref="E6:E13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9A84109D-8D13-4CD0-BD19-3A7EFEF25FF8}" name="Category_Table" displayName="Category_Table" ref="E6:E13" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="E6:E13" xr:uid="{9A84109D-8D13-4CD0-BD19-3A7EFEF25FF8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{E100214D-DBF1-4CFB-9E17-C0CEBCCD61DF}" name="Category" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{E100214D-DBF1-4CFB-9E17-C0CEBCCD61DF}" name="Category" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7A386290-242C-46F5-BE39-86E69ECFA5BD}" name="Table6" displayName="Table6" ref="D11:H20" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{7A386290-242C-46F5-BE39-86E69ECFA5BD}" name="Table6" displayName="Table6" ref="D11:H20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="D11:H20" xr:uid="{7A386290-242C-46F5-BE39-86E69ECFA5BD}"/>
   <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{034CD7B6-F0FE-49E2-8822-D145146BE57A}" name="Category" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{ABB42FF1-DFD3-4DD0-AB13-D29838D4E976}" name="Deadline" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{1A1D8EE1-6C02-4AC9-9EC7-6FF4827F695F}" name="Priority" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{AB73339B-97AF-4EFA-92DB-F99B49DE6D3A}" name="Tasks" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{9882A02F-E305-4CF5-8533-D3D0DDF61773}" name="Status" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{034CD7B6-F0FE-49E2-8822-D145146BE57A}" name="Category" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{ABB42FF1-DFD3-4DD0-AB13-D29838D4E976}" name="Deadline" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1A1D8EE1-6C02-4AC9-9EC7-6FF4827F695F}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AB73339B-97AF-4EFA-92DB-F99B49DE6D3A}" name="Tasks" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{9882A02F-E305-4CF5-8533-D3D0DDF61773}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1359,7 +1246,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="D1:N15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1371,58 +1261,58 @@
   <sheetData>
     <row r="1" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="4:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="14"/>
     </row>
     <row r="3" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="17"/>
     </row>
     <row r="4" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20"/>
     </row>
     <row r="5" spans="4:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="4:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
@@ -1513,174 +1403,178 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="D2:I20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="18"/>
-    <col min="4" max="4" width="25.140625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="27.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="18" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="3" width="9.140625" style="7"/>
+    <col min="4" max="4" width="25.140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="4:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" spans="4:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" spans="4:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="10">
         <f ca="1">COUNTIF(Table6[Deadline],TODAY())</f>
         <v>0</v>
       </c>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="10">
         <f>COUNTIF(Table6[Status],"Completed")</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="10">
         <f ca="1">COUNTIF(Table6[Deadline],"&gt;"&amp;TODAY())</f>
         <v>0</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="10">
         <f>COUNTIF(Table6[Status],"In Progress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="10">
         <f>COUNTIF(Table6[Status],"Not Started")</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="20"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="20"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="20"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="20"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17" s="20"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18" s="20"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19" s="20"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20" s="20"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1688,26 +1582,26 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D12:H20">
-    <cfRule type="expression" dxfId="11" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>AND($E12=TODAY(),$H12="Completed")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$E12&gt;TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$E12=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$H12="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
